--- a/oracle/oracleNote.xlsx
+++ b/oracle/oracleNote.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4880D79-3F42-40A4-B7BC-8C89C988778C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="sql优化" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" iterate="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -24,14 +26,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>功能点用法</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能点描述</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>备注</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -41,13 +35,88 @@
   </si>
   <si>
     <t>别名加双引号，如 as“contno”</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>索引</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能点说明</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B树索引，叶子节点（双向链表）包含索引列和指向表中每个匹配行的ROWID值
+位图索引，对于基数小的列适合简历位图索引，如性别等
+单列索引和复合索引，复核索引必须使用第一列才会使用索引
+函数索引，聚合函数不能使用索引，必须为每行单独返回结果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化方法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>原因</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>避免使用子查询</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>首先考虑在where条件上与order by 涉及的列中建立索引</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚合索引中，必须包含第一列作为查询条件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>避免过多表连接，可将查询过程拆分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>尽量用inner join代替外连接</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用临时表存储临时数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库设计时设置默认值,不再where子句中使用空值判断</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>like通配符出现在首位，无法使用索引%a%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>避免使用!=与&lt;&gt;,即not运算符，会导致不适用索引</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>not in是最低效的，因为要对子查询的表进行全表扫描。可以考虑使用外链接或not exists</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>索引列上的or操作会导致放弃索引，可以考虑使用union替换</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>union包含了去重操作，如非必要，建议使用union all替换</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>on、where和having是有过滤行为的，过滤行为越能提前完成就越可以减少传递给下一个阶段的数据量</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -114,13 +183,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -139,7 +214,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -214,6 +289,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -249,6 +341,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -424,20 +533,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="75.625" customWidth="1"/>
+    <col min="2" max="2" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="75.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -445,90 +554,221 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" ht="56" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
+      <c r="C3" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A1B4B97-5BDF-42BF-93FF-8145D9504028}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="98" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/oracle/oracleNote.xlsx
+++ b/oracle/oracleNote.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4880D79-3F42-40A4-B7BC-8C89C988778C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91165436-41F8-4ADF-8BDE-6CB28D0073AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -110,6 +110,84 @@
   </si>
   <si>
     <t>on、where和having是有过滤行为的，过滤行为越能提前完成就越可以减少传递给下一个阶段的数据量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重置索引</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>alter sequence name increment by 1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>oracle date类型默认包含时分秒，PLSQL不显示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看数据库链接数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>select count(*) from v$session;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT OSUSER 电脑登录身份,  
+       PROGRAM 发起请求的程序,  
+       USERNAME 登录系统的用户名,  
+       SCHEMANAME,  
+       B.Cpu_Time 花费cpu的时间,  
+       STATUS,  
+       B.SQL_TEXT 执行的sql  
+FROM V$SESSION A  
+LEFT JOIN V$SQL B ON A.SQL_ADDRESS = B.ADDRESS  
+                   AND A.SQL_HASH_VALUE = B.HASH_VALUE  
+ORDER BY b.cpu_time DESC  </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询数据库正在执行的SQL及其发起程序</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT l.session_id sid,  
+       s.serial#,  
+       l.locked_mode 锁模式,  
+       l.oracle_username 登录用户,  
+       l.os_user_name 登录机器用户名,  
+       s.machine 机器名,  
+       s.terminal 终端用户名,  
+       o.object_name 被锁对象名,  
+       s.logon_time 登录数据库时间  
+FROM v$locked_object l, all_objects o, v$session s  
+WHERE l.object_id = o.object_id  
+   AND l.session_id = s.sid  
+ORDER BY sid, s.serial#;  </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看oracle当前被锁对象</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>alter system kill session 'sid， s.serial#‘;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>kill数据库连接</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询数据库所有表名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from user_tables;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -536,13 +614,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="95" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.36328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="75.6328125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -584,44 +662,72 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="154" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="182" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -633,6 +739,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -640,8 +747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A1B4B97-5BDF-42BF-93FF-8145D9504028}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
